--- a/ЗАВОДЫ/ПОКОМ/ОПТы/2025/07,25/11,07,25 ПРС ЗПФ ЛП ближ/ПРС ЗПФ.xlsx
+++ b/ЗАВОДЫ/ПОКОМ/ОПТы/2025/07,25/11,07,25 ПРС ЗПФ ЛП ближ/ПРС ЗПФ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\РАБОЧИЙ СТОЛ\11,07,25 ПРС ЗПФ ЛП ближ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\ОПТы\2025\07,25\11,07,25 ПРС ЗПФ ЛП ближ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE14F078-909E-4A8F-9F32-DB852568ADF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97D7358-DB62-40D7-BE8C-BBB23D799205}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,20 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="95">
   <si>
     <t>SU003593</t>
   </si>
@@ -305,6 +313,9 @@
   </si>
   <si>
     <t>КОЛ-ВО паллет</t>
+  </si>
+  <si>
+    <t>Завод не отгрузит (прадварительно)</t>
   </si>
 </sst>
 </file>
@@ -315,7 +326,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -360,8 +371,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,6 +419,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -676,6 +700,10 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -694,7 +722,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Лист1"/>
@@ -6969,9 +6997,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7009,9 +7037,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7044,9 +7072,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7079,9 +7124,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7259,10 +7321,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7381,7 +7443,7 @@
       <c r="I3" s="29">
         <v>240</v>
       </c>
-      <c r="L3" s="2" t="str">
+      <c r="L3" s="59" t="str">
         <f>VLOOKUP(E3,[1]Лист1!$A:$E,2,0)</f>
         <v>SU003593</v>
       </c>
@@ -7616,19 +7678,19 @@
         <v>14</v>
       </c>
       <c r="T6">
-        <f>ROUND(I6/Q6,0)</f>
+        <f t="shared" ref="T6:T11" si="0">ROUND(I6/Q6,0)</f>
         <v>1676</v>
       </c>
       <c r="U6" s="9">
-        <f t="shared" ref="U6:U11" si="0">MROUND(T6,R6*S6)</f>
+        <f t="shared" ref="U6:U11" si="1">MROUND(T6,R6*S6)</f>
         <v>1680</v>
       </c>
       <c r="V6" s="51">
-        <f t="shared" ref="V6:V11" si="1">U6/R6</f>
+        <f t="shared" ref="V6:V11" si="2">U6/R6</f>
         <v>140</v>
       </c>
       <c r="W6">
-        <f t="shared" ref="W6:W11" si="2">V6*R6*Q6</f>
+        <f t="shared" ref="W6:W11" si="3">V6*R6*Q6</f>
         <v>403.2</v>
       </c>
       <c r="X6" s="53">
@@ -7703,19 +7765,19 @@
         <v>14</v>
       </c>
       <c r="T7">
-        <f>ROUND(I7/Q7,0)</f>
+        <f t="shared" si="0"/>
         <v>1744</v>
       </c>
       <c r="U7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1680</v>
       </c>
       <c r="V7" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="W7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>403.2</v>
       </c>
       <c r="X7" s="53">
@@ -7748,7 +7810,7 @@
       <c r="I8" s="30">
         <v>176.94</v>
       </c>
-      <c r="L8" s="2" t="str">
+      <c r="L8" s="59" t="str">
         <f>VLOOKUP(E8,[1]Лист1!$A:$E,2,0)</f>
         <v>SU002573</v>
       </c>
@@ -7781,19 +7843,19 @@
         <v>14</v>
       </c>
       <c r="T8">
-        <f>ROUND(I8/Q8,0)</f>
+        <f t="shared" si="0"/>
         <v>1966</v>
       </c>
       <c r="U8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="V8" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="W8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>181.44</v>
       </c>
       <c r="X8" s="53">
@@ -7832,7 +7894,7 @@
       <c r="K9" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="L9" s="48" t="str">
+      <c r="L9" s="59" t="str">
         <f>VLOOKUP(J9,[1]Лист1!$A:$E,2,0)</f>
         <v>SU003872</v>
       </c>
@@ -7865,19 +7927,19 @@
         <v>14</v>
       </c>
       <c r="T9">
-        <f>ROUND(I9/Q9,0)</f>
+        <f t="shared" si="0"/>
         <v>1048</v>
       </c>
       <c r="U9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1008</v>
       </c>
       <c r="V9" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="W9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>201.60000000000002</v>
       </c>
       <c r="X9" s="53">
@@ -7910,7 +7972,7 @@
       <c r="I10" s="30">
         <v>304.8</v>
       </c>
-      <c r="L10" s="2" t="str">
+      <c r="L10" s="59" t="str">
         <f>VLOOKUP(E10,[1]Лист1!$A:$E,2,0)</f>
         <v>SU003607</v>
       </c>
@@ -7943,19 +8005,19 @@
         <v>14</v>
       </c>
       <c r="T10">
-        <f>ROUND(I10/Q10,0)</f>
+        <f t="shared" si="0"/>
         <v>1016</v>
       </c>
       <c r="U10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1008</v>
       </c>
       <c r="V10" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="W10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>302.39999999999998</v>
       </c>
       <c r="X10" s="53">
@@ -7988,7 +8050,7 @@
       <c r="I11" s="30">
         <v>351.59999999999997</v>
       </c>
-      <c r="L11" s="2" t="str">
+      <c r="L11" s="59" t="str">
         <f>VLOOKUP(E11,[1]Лист1!$A:$E,2,0)</f>
         <v>SU003591</v>
       </c>
@@ -8021,19 +8083,19 @@
         <v>14</v>
       </c>
       <c r="T11">
-        <f>ROUND(I11/Q11,0)</f>
+        <f t="shared" si="0"/>
         <v>1172</v>
       </c>
       <c r="U11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1176</v>
       </c>
       <c r="V11" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="W11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>352.8</v>
       </c>
       <c r="X11" s="53">
@@ -8138,19 +8200,19 @@
         <v>14</v>
       </c>
       <c r="T13">
-        <f>ROUND(I13/Q13,0)</f>
+        <f t="shared" ref="T13:T26" si="4">ROUND(I13/Q13,0)</f>
         <v>850</v>
       </c>
       <c r="U13" s="9">
-        <f t="shared" ref="U13:U26" si="3">MROUND(T13,R13*S13)</f>
+        <f t="shared" ref="U13:U26" si="5">MROUND(T13,R13*S13)</f>
         <v>840</v>
       </c>
       <c r="V13" s="51">
-        <f t="shared" ref="V13:V26" si="4">U13/R13</f>
+        <f t="shared" ref="V13:V26" si="6">U13/R13</f>
         <v>140</v>
       </c>
       <c r="W13">
-        <f t="shared" ref="W13:W26" si="5">V13*R13*Q13</f>
+        <f t="shared" ref="W13:W26" si="7">V13*R13*Q13</f>
         <v>210</v>
       </c>
       <c r="X13" s="53">
@@ -8216,19 +8278,19 @@
         <v>14</v>
       </c>
       <c r="T14">
-        <f>ROUND(I14/Q14,0)</f>
+        <f t="shared" si="4"/>
         <v>920</v>
       </c>
       <c r="U14" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>924</v>
       </c>
       <c r="V14" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>154</v>
       </c>
       <c r="W14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>231</v>
       </c>
       <c r="X14" s="53">
@@ -8294,19 +8356,19 @@
         <v>14</v>
       </c>
       <c r="T15">
-        <f>ROUND(I15/Q15,0)</f>
+        <f t="shared" si="4"/>
         <v>2777</v>
       </c>
       <c r="U15" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2856</v>
       </c>
       <c r="V15" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>238</v>
       </c>
       <c r="W15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>714</v>
       </c>
       <c r="X15" s="53">
@@ -8339,7 +8401,7 @@
       <c r="I16" s="30">
         <v>237.5</v>
       </c>
-      <c r="L16" s="2" t="str">
+      <c r="L16" s="59" t="str">
         <f>VLOOKUP(E16,[1]Лист1!$A:$E,2,0)</f>
         <v>SU003596</v>
       </c>
@@ -8372,19 +8434,19 @@
         <v>14</v>
       </c>
       <c r="T16">
-        <f>ROUND(I16/Q16,0)</f>
+        <f t="shared" si="4"/>
         <v>950</v>
       </c>
       <c r="U16" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1008</v>
       </c>
       <c r="V16" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>84</v>
       </c>
       <c r="W16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>252</v>
       </c>
       <c r="X16" s="53">
@@ -8450,19 +8512,19 @@
         <v>12</v>
       </c>
       <c r="T17">
-        <f>ROUND(I17/Q17,0)</f>
+        <f t="shared" si="4"/>
         <v>942</v>
       </c>
       <c r="U17" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>960</v>
       </c>
       <c r="V17" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="W17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>672</v>
       </c>
       <c r="X17" s="53">
@@ -8528,19 +8590,19 @@
         <v>12</v>
       </c>
       <c r="T18">
-        <f>ROUND(I18/Q18,0)</f>
+        <f t="shared" si="4"/>
         <v>1379</v>
       </c>
       <c r="U18" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1344</v>
       </c>
       <c r="V18" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>168</v>
       </c>
       <c r="W18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>940.8</v>
       </c>
       <c r="X18" s="53">
@@ -8573,7 +8635,7 @@
       <c r="I19" s="30">
         <v>261.60000000000002</v>
       </c>
-      <c r="L19" s="2" t="str">
+      <c r="L19" s="59" t="str">
         <f>VLOOKUP(E19,[1]Лист1!$A:$E,2,0)</f>
         <v>SU003386</v>
       </c>
@@ -8606,19 +8668,19 @@
         <v>12</v>
       </c>
       <c r="T19">
-        <f>ROUND(I19/Q19,0)</f>
+        <f t="shared" si="4"/>
         <v>654</v>
       </c>
       <c r="U19" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>576</v>
       </c>
       <c r="V19" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="W19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>230.4</v>
       </c>
       <c r="X19" s="53">
@@ -8684,19 +8746,19 @@
         <v>12</v>
       </c>
       <c r="T20">
-        <f>ROUND(I20/Q20,0)</f>
+        <f t="shared" si="4"/>
         <v>1215</v>
       </c>
       <c r="U20" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1200</v>
       </c>
       <c r="V20" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="W20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>840</v>
       </c>
       <c r="X20" s="53">
@@ -8762,19 +8824,19 @@
         <v>12</v>
       </c>
       <c r="T21">
-        <f>ROUND(I21/Q21,0)</f>
+        <f t="shared" si="4"/>
         <v>1410</v>
       </c>
       <c r="U21" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1440</v>
       </c>
       <c r="V21" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>144</v>
       </c>
       <c r="W21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1007.9999999999999</v>
       </c>
       <c r="X21" s="53">
@@ -8840,19 +8902,19 @@
         <v>12</v>
       </c>
       <c r="T22">
-        <f>ROUND(I22/Q22,0)</f>
+        <f t="shared" si="4"/>
         <v>930</v>
       </c>
       <c r="U22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>960</v>
       </c>
       <c r="V22" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="W22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>384</v>
       </c>
       <c r="X22" s="53">
@@ -8918,19 +8980,19 @@
         <v>12</v>
       </c>
       <c r="T23">
-        <f>ROUND(I23/Q23,0)</f>
+        <f t="shared" si="4"/>
         <v>1075</v>
       </c>
       <c r="U23" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1152</v>
       </c>
       <c r="V23" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="W23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>460.8</v>
       </c>
       <c r="X23" s="53">
@@ -8996,19 +9058,19 @@
         <v>12</v>
       </c>
       <c r="T24">
-        <f>ROUND(I24/Q24,0)</f>
+        <f t="shared" si="4"/>
         <v>1170</v>
       </c>
       <c r="U24" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1200</v>
       </c>
       <c r="V24" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="W24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>840</v>
       </c>
       <c r="X24" s="53">
@@ -9074,19 +9136,19 @@
         <v>14</v>
       </c>
       <c r="T25">
-        <f>ROUND(I25/Q25,0)</f>
+        <f t="shared" si="4"/>
         <v>1918</v>
       </c>
       <c r="U25" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1848</v>
       </c>
       <c r="V25" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>154</v>
       </c>
       <c r="W25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>462</v>
       </c>
       <c r="X25" s="53">
@@ -9152,19 +9214,19 @@
         <v>14</v>
       </c>
       <c r="T26">
-        <f>ROUND(I26/Q26,0)</f>
+        <f t="shared" si="4"/>
         <v>1891</v>
       </c>
       <c r="U26" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1848</v>
       </c>
       <c r="V26" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>154</v>
       </c>
       <c r="W26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>462</v>
       </c>
       <c r="X26" s="53">
@@ -9195,7 +9257,19 @@
         <v>33</v>
       </c>
     </row>
+    <row r="30" spans="2:24" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L30" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L30:P30"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
